--- a/biology/Botanique/Tapura_guianensis/Tapura_guianensis.xlsx
+++ b/biology/Botanique/Tapura_guianensis/Tapura_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tapura guianensis est une espèce de plantes à fleurs de la famille des Dichapetalaceae. C'est arbuste rare. Il s'agit de l'espèce type du genre Tapura Aubl..
-Au Suriname, on le nomme Boesi Kofi (Hollandais du Suriname), Wassakao (Karib)[2], Pakira-oedoe, Pakira-tiki (Nenge tongo)[3].
-Au Guyana, il porte les noms de Lukuchi-danni, Muribania, Surubundi, Walaballi, Waidan[3].
-Au Venezuela, on l'appelle Jabón de hoja ancha, Vara vara negro [4].
+Au Suriname, on le nomme Boesi Kofi (Hollandais du Suriname), Wassakao (Karib), Pakira-oedoe, Pakira-tiki (Nenge tongo).
+Au Guyana, il porte les noms de Lukuchi-danni, Muribania, Surubundi, Walaballi, Waidan.
+Au Venezuela, on l'appelle Jabón de hoja ancha, Vara vara negro .
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tapura guianensis est un petit arbre atteignant 5(9) m de haut, à rameaux glabres ou peu pubères devenant rapidement glabre, cylindriques ou subcylindriques à côtes subéminentes. 
 Les feuilles, les pétioles et les jeunes tiges, sont glabres.
@@ -535,8 +549,8 @@
 Le disque est semi-annulaire autour de la base de l'ovaire, sub-trilobé près des étamines fertiles.
 Le fruit est une drupe subglobuleuse ou ovoïde, étroitement oblong à ellipsoïde, longue de 7-15 mm, contenant généralement 1(2) loge.
 L'épicarpe porte une courte pubescence veloutée compacte, et le mésocarpe très fin.
-L'endocarpe est très fin , dur, ligneux, et glabre à l'intérieur[4],[2],[5],[6].
-NB : on distingue nettement Tapura guianensis de T. capitulifera par la structure florale, mais ils sont souvent impossibles à distinguer sur le matériel d'herbier stérile[3]. 
+L'endocarpe est très fin , dur, ligneux, et glabre à l'intérieur.
+NB : on distingue nettement Tapura guianensis de T. capitulifera par la structure florale, mais ils sont souvent impossibles à distinguer sur le matériel d'herbier stérile. 
 </t>
         </is>
       </c>
@@ -565,9 +579,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tapura guianensis est présent du sud-est de la Colombie, au Brésil amazonien en passant par le Venezuela, le Guyana, le Suriname, la Guyane, l'Équateur, et le Pérou[4],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tapura guianensis est présent du sud-est de la Colombie, au Brésil amazonien en passant par le Venezuela, le Guyana, le Suriname, la Guyane, l'Équateur, et le Pérou,.
 </t>
         </is>
       </c>
@@ -596,14 +612,16 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Tapura guianensis dans les forêts de basse altitude sempervirentes de terre ferme (non inondées) et les basses forêts de montagne, autour de 50–800 m d'altitude au Venezuela[4], et dans les forêts anciennes guyanaises et amazonienne sur les sols inondés et non inondés, jusqu'à 800 m d'altitude[3].
-Tapura guianensis fleurit toute l'année dans les Guyanes, avec un pic de novembre à avril[3].
-On rapporte une fructification en Guyane en août et septembre[5].
-Les racines de Tapura guianensis se développent à 10 cm de profondeur et sont légèrement coloniéses par les mycorhizes[7].
-Les feuilles de Tapura guianensis produisent des phytolithes courbes, fins et irréguliers[8].
-Tapura guianensis est une des espèces ayant permis d'appuyer la "théorie des refuges forestiers du Pléistocène dans le bassin amazonien" sur une base phytogéographique[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Tapura guianensis dans les forêts de basse altitude sempervirentes de terre ferme (non inondées) et les basses forêts de montagne, autour de 50–800 m d'altitude au Venezuela, et dans les forêts anciennes guyanaises et amazonienne sur les sols inondés et non inondés, jusqu'à 800 m d'altitude.
+Tapura guianensis fleurit toute l'année dans les Guyanes, avec un pic de novembre à avril.
+On rapporte une fructification en Guyane en août et septembre.
+Les racines de Tapura guianensis se développent à 10 cm de profondeur et sont légèrement coloniéses par les mycorhizes.
+Les feuilles de Tapura guianensis produisent des phytolithes courbes, fins et irréguliers.
+Tapura guianensis est une des espèces ayant permis d'appuyer la "théorie des refuges forestiers du Pléistocène dans le bassin amazonien" sur une base phytogéographique.
 </t>
         </is>
       </c>
@@ -632,9 +650,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le sel extrait de la cendre de Tapura guianensis contient 15,6 % de CO32−, 3,2 % de Cl−, 23,7 % de SO442−, 0,06 % de Na+, 33,6% de K+[10].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sel extrait de la cendre de Tapura guianensis contient 15,6 % de CO32−, 3,2 % de Cl−, 23,7 % de SO442−, 0,06 % de Na+, 33,6% de K+.
 </t>
         </is>
       </c>
@@ -663,9 +683,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[11] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « TAPURA guianenſis. (Tabula 48.)
 Frutex duodecim-pedalis, ramoſus. Folia alterna, petiolata, glabra, ovata, acuta, acumine obtuſo ; ſtipulata. Stipulis brevibus deciduis. Flores minuti, congeſti ad baſim folii ſuprà petiolum, femles. Calix tribus ſquamulis involvitur, perſiſtentibus. Corolla flava.
 Florebat Auguſto.
